--- a/doc.xlsx
+++ b/doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/v/code/ktlt/ktlt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDA0B7CD-0220-844D-97BE-C985F6746FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FFD870-A66C-8242-B409-61BA815561C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{026A610E-589E-2B40-9F9C-BA7647961D09}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">mov ah, 9 </t>
   </si>
@@ -245,6 +245,9 @@
       </rPr>
       <t>; đích&lt;-đích- nguồn</t>
     </r>
+  </si>
+  <si>
+    <t>kí tự nhập lưu trong al</t>
   </si>
 </sst>
 </file>
@@ -642,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF406800-DCF1-3547-9BE9-1BB46928305B}">
   <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="257" workbookViewId="0">
-      <selection activeCell="B24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="257" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -651,7 +654,7 @@
     <col min="1" max="1" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" style="4" customWidth="1"/>
@@ -681,6 +684,9 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/v/code/ktlt/ktlt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FFD870-A66C-8242-B409-61BA815561C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF252311-192B-5F4E-8C63-D87C4F3D7EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{026A610E-589E-2B40-9F9C-BA7647961D09}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">mov ah, 9 </t>
   </si>
@@ -247,7 +247,85 @@
     </r>
   </si>
   <si>
-    <t>kí tự nhập lưu trong al</t>
+    <t>Ra: al = 0 nếu bàn phím bấm phím chức năng</t>
+  </si>
+  <si>
+    <t>Ra al = dạng mã ASCII nếu bàn phím bấm kí tự</t>
+  </si>
+  <si>
+    <t>Vào: AH =1</t>
+  </si>
+  <si>
+    <t>Vào AH = 2</t>
+  </si>
+  <si>
+    <t>Vào DL: Chứa mã ASCII của kí tự hiển thị hay kí tự điều khiển</t>
+  </si>
+  <si>
+    <t>Ra: AL=Mã ASCII của kí tự hiển thị hay kí tự điều khiển</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vào AH = 9 </t>
+  </si>
+  <si>
+    <t>Vào: DX=địa chỉ tương đối (offset) của chuỗi. Chuỗi phải kết thúc bằng kí tự $</t>
+  </si>
+  <si>
+    <t>ASII</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>bằng</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">div số chia nguồn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">toán hạng nguồn 8 bit: </t>
+  </si>
+  <si>
+    <t>al &lt;- ax / số chia nguồn</t>
+  </si>
+  <si>
+    <t>Kết quả lưu vào al, phần dư lưu vào ah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toán hạng nguồn 16 bit: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ax &lt;- dxax / số chia nguồn </t>
+  </si>
+  <si>
+    <t>dx lưu phần dư</t>
   </si>
 </sst>
 </file>
@@ -319,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -329,6 +407,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,6 +429,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13955</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>48846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>113183</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>106698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C629D41-8661-C864-7DC8-443D0C77C57F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13955" y="6929176"/>
+          <a:ext cx="5067580" cy="4105104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -643,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF406800-DCF1-3547-9BE9-1BB46928305B}">
-  <dimension ref="B2:G28"/>
+  <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="257" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="182" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -654,8 +788,8 @@
     <col min="1" max="1" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" style="4" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="4"/>
@@ -668,215 +802,383 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
+      <c r="D3" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
+      <c r="D5" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
+      <c r="E7" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C10" s="5" t="s">
-        <v>51</v>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="12" x14ac:dyDescent="0.15">
-      <c r="C12" s="3" t="s">
+    <row r="15" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>30</v>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="C18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>39</v>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C24" s="6"/>
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C26" s="4" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C27" s="4" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C34" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D28" s="4" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D35" s="4" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C37" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C38" s="9">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C39" s="4">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C41" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C43" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C44" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C45" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C46" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C47" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C48" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C49" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="8">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc.xlsx
+++ b/doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/v/code/ktlt/ktlt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF252311-192B-5F4E-8C63-D87C4F3D7EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A397F3-30DA-F04E-B6EF-64C3C124D485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{026A610E-589E-2B40-9F9C-BA7647961D09}"/>
   </bookViews>
@@ -469,6 +469,50 @@
         <a:xfrm>
           <a:off x="13955" y="6929176"/>
           <a:ext cx="5067580" cy="4105104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139560</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>822291</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>8739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B301ED-5B42-7B56-CFDF-EDC188D5A7B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5107912" y="6947239"/>
+          <a:ext cx="4339214" cy="2174797"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF406800-DCF1-3547-9BE9-1BB46928305B}">
   <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="182" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="182" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
